--- a/hardware/simpleschema.xlsx
+++ b/hardware/simpleschema.xlsx
@@ -613,120 +613,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T31"/>
+  <dimension ref="C2:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="3:20">
+    <row r="2" spans="3:19">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="3:20">
+    </row>
+    <row r="3" spans="3:19">
       <c r="D3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="3:20">
+      <c r="K3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="3:19">
       <c r="D4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="3:20">
+      <c r="K4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="3:19">
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="9"/>
-      <c r="L5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="3:20">
+      <c r="K5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="3:19">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9"/>
-      <c r="L6" s="11"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="3:20">
+      <c r="K6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="3:19">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="3:20">
+      <c r="K7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="3:19">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9"/>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="3:20">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="3:19">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="3:20">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="3:19">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="3:20">
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="3:19">
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="3:20">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="3:19">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
@@ -737,29 +736,28 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="3:20">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="3:19">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="3:20">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="3:19">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
@@ -770,29 +768,28 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="3:20">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="3:19">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="3:20">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="3:19">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
@@ -803,35 +800,34 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="3:20">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="3:19">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="9"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="3:20">
+      <c r="P17" s="16"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="3:19">
       <c r="C18" s="1"/>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -841,63 +837,62 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="L18" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="M18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="3:20">
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="3:19">
       <c r="D19" s="8"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="3:20">
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="3:19">
       <c r="D20" s="8"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="12" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="14" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:20">
+    <row r="21" spans="3:19">
       <c r="D21" s="8"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="P21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="3:20">
+    </row>
+    <row r="22" spans="3:19">
       <c r="C22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
@@ -907,79 +902,78 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="P22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="3:20">
-      <c r="N23" s="5"/>
-      <c r="P23" s="15"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="13" t="s">
+    </row>
+    <row r="23" spans="3:19">
+      <c r="M23" s="5"/>
+      <c r="O23" s="15"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="3:20">
-      <c r="N24" s="5"/>
-      <c r="P24" s="15"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="M24" s="5"/>
+      <c r="O24" s="15"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="3:20">
-      <c r="N25" s="5"/>
-      <c r="P25" s="15"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="M25" s="5"/>
+      <c r="O25" s="15"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="3:20">
-      <c r="N26" s="5"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="M26" s="5"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="3:20">
-      <c r="N27" s="5"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="M27" s="5"/>
+      <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="3:20">
-      <c r="N28" s="5"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="M28" s="5"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="3:20">
-      <c r="N29" s="5"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="M29" s="5"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="14" t="s">
+      <c r="S29" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:20">
-      <c r="N30" s="5"/>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="3:20">
+    <row r="30" spans="3:19">
+      <c r="M30" s="5"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
